--- a/tutorial/supply/tests/supplier_excel_data/主板数据表.xlsx
+++ b/tutorial/supply/tests/supplier_excel_data/主板数据表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengzhenbo/Library/Mobile Documents/com~apple~CloudDocs/04Project/ElevatorCertificate/ElevatorCertificate/tutorial/supply/tests/supplier_excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26862CB7-1B32-C440-A8E2-44AD4FD9371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865EC423-ED97-F046-93BA-FCF116E764A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39420" yWindow="2280" windowWidth="27780" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39820" yWindow="6080" windowWidth="27780" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主板数据" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>序号</t>
   </si>
@@ -59,83 +59,109 @@
     <t>XZ23050284</t>
   </si>
   <si>
-    <t>YM23060805SMCMXIZIV1.3Z</t>
+    <t>XZ22160408</t>
+  </si>
+  <si>
+    <t>XZ22160409</t>
+  </si>
+  <si>
+    <t>制造单位名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品型号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造批次号（或者是编号）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>型式试验证书编号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMART</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>含有电子元件的安全电路（SMART板）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LVCT1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>含有电子元件的安全电路（LVCT1板）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>西子电梯科技有限公司</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.7.14</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.7.15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.7.16</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LVCT2</t>
+  </si>
+  <si>
+    <t>LVCT3</t>
+  </si>
+  <si>
+    <t>YM2306122045T1V1.1Y</t>
+  </si>
+  <si>
+    <t>YM2306122045T1V1.2Y</t>
   </si>
   <si>
     <t>YM2306122045T1V1.0Y</t>
-  </si>
-  <si>
-    <t>XZ22160408</t>
-  </si>
-  <si>
-    <t>XZ22160409</t>
-  </si>
-  <si>
-    <t>制造单位名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品型号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>制造批次号（或者是编号）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>型式试验证书编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>制造日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMART</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>含有电子元件的安全电路（SMART板）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>LVCT1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>含有电子元件的安全电路（LVCT1板）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>西子电梯科技有限公司</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.7.14</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.7.15</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.7.16</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>122045T1V</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.7.17</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.7.18</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCMXIZIV1.3Z</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -662,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -680,7 +706,8 @@
     <col min="10" max="10" width="14.83203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="24.1640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="14.1640625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1"/>
@@ -700,14 +727,14 @@
     </row>
     <row r="3" spans="2:13" ht="30.75" customHeight="1">
       <c r="D3" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -719,37 +746,37 @@
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="I4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="21" customHeight="1">
@@ -761,30 +788,32 @@
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="K5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="M5" s="9" t="s">
         <v>17</v>
       </c>
@@ -795,29 +824,37 @@
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="5"/>
+      <c r="K6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="M6" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="21" customHeight="1">
@@ -826,29 +863,37 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="M7" s="9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:13">

--- a/tutorial/supply/tests/supplier_excel_data/主板数据表.xlsx
+++ b/tutorial/supply/tests/supplier_excel_data/主板数据表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengzhenbo/Library/Mobile Documents/com~apple~CloudDocs/04Project/ElevatorCertificate/ElevatorCertificate/tutorial/supply/tests/supplier_excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865EC423-ED97-F046-93BA-FCF116E764A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E6883-766C-CB45-83E2-CD37E702913F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39820" yWindow="6080" windowWidth="27780" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39420" yWindow="3720" windowWidth="27780" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主板数据" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>序号</t>
   </si>
@@ -154,10 +154,6 @@
   </si>
   <si>
     <t>2023.7.17</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.7.18</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -689,7 +685,7 @@
   <dimension ref="B1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -794,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>19</v>
@@ -892,9 +888,7 @@
       <c r="L7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="2:13">
       <c r="C8" s="1"/>

--- a/tutorial/supply/tests/supplier_excel_data/主板数据表.xlsx
+++ b/tutorial/supply/tests/supplier_excel_data/主板数据表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengzhenbo/Library/Mobile Documents/com~apple~CloudDocs/04Project/ElevatorCertificate/ElevatorCertificate/tutorial/supply/tests/supplier_excel_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.tingting\Desktop\新建文件夹\supplier_excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E6883-766C-CB45-83E2-CD37E702913F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39420" yWindow="3720" windowWidth="27780" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39420" yWindow="3720" windowWidth="27780" windowHeight="16095"/>
   </bookViews>
   <sheets>
     <sheet name="主板数据" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
     <definedName name="_MT207">主板数据!$B$5:$L$7</definedName>
     <definedName name="_SF7086">主板数据!$C$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>序号</t>
   </si>
@@ -56,15 +55,6 @@
     <t>主  板  数  据</t>
   </si>
   <si>
-    <t>XZ23050284</t>
-  </si>
-  <si>
-    <t>XZ22160408</t>
-  </si>
-  <si>
-    <t>XZ22160409</t>
-  </si>
-  <si>
     <t>制造单位名称</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -109,10 +99,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2023.7.15</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2023.7.16</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -121,50 +107,30 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>dd</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>LVCT2</t>
-  </si>
-  <si>
-    <t>LVCT3</t>
-  </si>
-  <si>
-    <t>YM2306122045T1V1.1Y</t>
-  </si>
-  <si>
-    <t>YM2306122045T1V1.2Y</t>
-  </si>
-  <si>
-    <t>YM2306122045T1V1.0Y</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>122045T1V</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.7.17</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCMXIZIV1.3Z</t>
+    <t>XZ22230535</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>YM23080436SMCMSJEV1.2Z</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSX F36002720210035</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TSX F36002720190028 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>YM2308020337T1V1.0Y</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -346,7 +312,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -362,7 +328,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -437,23 +403,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -489,23 +438,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -681,27 +613,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="0.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="21" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="2" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
@@ -723,14 +655,14 @@
     </row>
     <row r="3" spans="2:13" ht="30.75" customHeight="1">
       <c r="D3" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -742,37 +674,37 @@
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="I4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="21" customHeight="1">
@@ -781,113 +713,71 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="L5" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="21" customHeight="1">
-      <c r="B6" s="8">
+      <c r="B6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="2:13" ht="21" customHeight="1">
-      <c r="B7" s="8">
+      <c r="B7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="2:13">
@@ -925,11 +815,11 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="输入的文字不允许超过限定的【150】个字符" sqref="C11:E11 C5:M7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="输入的文字不允许超过限定的【150】个字符" sqref="C11:E11 C5:M7">
       <formula1>0</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="输入数据类型错误，请输入整数类型数据，且不允许超过限定的【32】位数字！" sqref="B5:B7" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="输入数据类型错误，请输入整数类型数据，且不允许超过限定的【32】位数字！" sqref="B5:B7">
       <formula1>-1E+32</formula1>
       <formula2>1E+32</formula2>
     </dataValidation>
